--- a/probability/Zn/All/threshold.xlsx
+++ b/probability/Zn/All/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\All\Zn\All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFB1291-D44B-41EE-8157-65C68B806E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61B2C0C-A701-470D-82F6-70B491A6EDC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="C3" s="2">
         <v>6.3</v>
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>
